--- a/Projeto 5/indicator life_expectancy_at_birth.xlsx
+++ b/Projeto 5/indicator life_expectancy_at_birth.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="262">
   <si>
     <t>Abkhazia</t>
   </si>
@@ -808,9 +808,6 @@
   </si>
   <si>
     <t>A2009</t>
-  </si>
-  <si>
-    <t>Pais</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1171,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="F260" sqref="F260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,9 +1179,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>260</v>
       </c>
@@ -1194,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1429,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1501,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1549,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1557,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1597,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1653,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1693,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1741,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1765,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1773,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1861,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1917,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1957,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,7 +2037,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,7 +2077,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +2133,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2141,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,7 +2213,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,7 +2365,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2389,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2429,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2477,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2509,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2517,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2525,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2565,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2618,7 +2613,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2685,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2693,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2701,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2717,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2733,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2749,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2789,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2797,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2861,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2877,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2917,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3005,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3021,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3061,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3069,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3125,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,7 +3141,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3178,7 +3173,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3205,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3213,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3229,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3253,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
